--- a/４．【アイテ゛アシート】_神戸高専A.xlsx
+++ b/４．【アイテ゛アシート】_神戸高専A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\2023honrobo-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BE42E-282C-48A0-897B-C26E03788FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{323434DF-2F3E-45AF-96E9-0236B27B7753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="703" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="703" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$P$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1106,10 +1107,7 @@
       <t>シケン</t>
     </rPh>
     <rPh sb="201" eb="202">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="321" eb="327">
-      <t>キンキチクタイカイ</t>
+      <t>ニチキンキチクタイカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1863,6 +1861,43 @@
     <xf numFmtId="0" fontId="43" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1871,9 +1906,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1882,117 +1914,177 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2001,15 +2093,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2058,91 +2141,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2324,14 +2322,19 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2344,40 +2347,35 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7334,22 +7332,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="94.5" customHeight="1">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -7368,134 +7366,134 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -7514,26 +7512,26 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="51" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="21"/>
@@ -7552,24 +7550,24 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="B14" s="23"/>
@@ -7587,26 +7585,26 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="51" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="B16" s="23"/>
@@ -7624,22 +7622,22 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="D18" s="23"/>
@@ -7655,11 +7653,11 @@
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -7671,25 +7669,25 @@
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="B21" s="2"/>
@@ -7707,25 +7705,25 @@
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="B23" s="2"/>
@@ -7743,23 +7741,23 @@
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="B25" s="2"/>
@@ -7777,32 +7775,32 @@
     </row>
     <row r="26" spans="1:16" ht="24" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1"/>
     <row r="28" spans="1:16" ht="24" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -7814,25 +7812,25 @@
     </row>
     <row r="29" spans="1:16" ht="24" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="51" t="s">
+      <c r="C29" s="59"/>
+      <c r="D29" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="B30" s="23"/>
@@ -7850,25 +7848,25 @@
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1">
       <c r="A32" s="23"/>
@@ -7889,42 +7887,42 @@
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="60">
+      <c r="C33" s="49">
         <v>6</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="53">
         <v>27</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
       <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="25"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
       <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
@@ -7934,6 +7932,19 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P6"/>
+    <mergeCell ref="A7:P9"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="A15:D15"/>
     <mergeCell ref="F33:N34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -7950,19 +7961,6 @@
     <mergeCell ref="D26:P26"/>
     <mergeCell ref="D29:P29"/>
     <mergeCell ref="D31:P31"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:P6"/>
-    <mergeCell ref="A7:P9"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C33:C34 E33:E34">
@@ -8004,114 +8002,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1"/>
     <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="72" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68" t="s">
+      <c r="J4" s="78"/>
+      <c r="K4" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="71">
+      <c r="A5" s="79">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79">
         <v>1</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79">
         <v>3</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71">
+      <c r="F5" s="79"/>
+      <c r="G5" s="79">
         <v>2</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71">
+      <c r="H5" s="79"/>
+      <c r="I5" s="79">
         <v>0</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71">
+      <c r="J5" s="79"/>
+      <c r="K5" s="79">
         <v>10</v>
       </c>
-      <c r="L5" s="71"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
@@ -8132,15 +8130,15 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -8249,168 +8247,168 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
     </row>
     <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
     </row>
     <row r="18" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="80"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="80"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
     </row>
     <row r="21" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="80"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="74"/>
     </row>
     <row r="22" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A22" s="78"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="80"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="83"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1">
       <c r="A24" s="35" t="s">
@@ -8431,172 +8429,182 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="77"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="71"/>
     </row>
     <row r="26" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="80"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="80"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
     </row>
     <row r="28" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="74"/>
     </row>
     <row r="29" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="80"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="74"/>
     </row>
     <row r="30" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A30" s="78"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="74"/>
     </row>
     <row r="31" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A31" s="78"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="74"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="80"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="74"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="81"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="83"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:F6"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A15:P23"/>
@@ -8613,16 +8621,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:L6 A9:N12 A15:P23 A25:P33">
@@ -8665,24 +8663,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="117"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="19"/>
@@ -8703,128 +8701,128 @@
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="121"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103" t="s">
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="126" t="s">
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="122">
+      <c r="B6" s="93"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="95">
         <v>800</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="122">
+      <c r="H6" s="95">
         <v>800</v>
       </c>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="124">
+      <c r="L6" s="97">
         <v>1600</v>
       </c>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
       <c r="O6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110">
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="103">
         <v>30</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="114" t="s">
+      <c r="M7" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="114"/>
+      <c r="N7" s="110"/>
       <c r="O7" s="32"/>
       <c r="P7" s="6">
         <f>$D$7</f>
@@ -8832,158 +8830,158 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="104" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="102"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="93" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="119"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="119"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="96" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="98"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="122"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102" t="s">
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="103" t="s">
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="102" t="s">
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="96" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="84" t="s">
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
       <c r="A15" s="28"/>
@@ -10292,6 +10290,25 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A9:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:P10"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="D13:P13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="D4:P4"/>
     <mergeCell ref="A3:P3"/>
@@ -10304,25 +10321,6 @@
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D14:P14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D9:P10"/>
-    <mergeCell ref="D11:P11"/>
-    <mergeCell ref="D13:P13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6:F6">
@@ -10373,7 +10371,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:P29"/>
     </sheetView>
   </sheetViews>
@@ -12085,21 +12083,21 @@
       <c r="A1" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" customHeight="1">
       <c r="A2" s="165" t="s">
@@ -12159,10 +12157,10 @@
       <c r="M4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="124">
+      <c r="N4" s="97">
         <v>95</v>
       </c>
-      <c r="O4" s="125"/>
+      <c r="O4" s="98"/>
       <c r="P4" s="44" t="s">
         <v>30</v>
       </c>
@@ -12183,10 +12181,10 @@
       <c r="M5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="124">
+      <c r="N5" s="97">
         <v>32</v>
       </c>
-      <c r="O5" s="125"/>
+      <c r="O5" s="98"/>
       <c r="P5" s="44" t="s">
         <v>30</v>
       </c>
@@ -12207,10 +12205,10 @@
       <c r="M6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="124">
+      <c r="N6" s="97">
         <v>20</v>
       </c>
-      <c r="O6" s="125"/>
+      <c r="O6" s="98"/>
       <c r="P6" s="44" t="s">
         <v>30</v>
       </c>
@@ -12234,7 +12232,7 @@
       <c r="N7" s="161">
         <v>3</v>
       </c>
-      <c r="O7" s="124"/>
+      <c r="O7" s="97"/>
       <c r="P7" s="44" t="s">
         <v>72</v>
       </c>
@@ -12258,7 +12256,7 @@
       <c r="N8" s="161">
         <v>1</v>
       </c>
-      <c r="O8" s="124"/>
+      <c r="O8" s="97"/>
       <c r="P8" s="44" t="s">
         <v>50</v>
       </c>
@@ -12907,7 +12905,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:P28"/>
     </sheetView>
   </sheetViews>
@@ -12920,21 +12918,21 @@
       <c r="A1" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="166" t="s">
@@ -13464,74 +13462,74 @@
       <c r="A1" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="175"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
+      <c r="A3" s="188"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
       <c r="L4" s="182" t="s">
         <v>20</v>
       </c>
@@ -13580,364 +13578,364 @@
       <c r="O6" s="186"/>
     </row>
     <row r="7" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A7" s="178" t="s">
+      <c r="A7" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="180"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="179"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="181"/>
     </row>
     <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
     </row>
     <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="178" t="s">
+      <c r="A9" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="180"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="181"/>
     </row>
     <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="178"/>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
     </row>
     <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="178" t="s">
+      <c r="A11" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="180"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="181"/>
     </row>
     <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="178"/>
-      <c r="B12" s="178"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
     </row>
     <row r="13" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="179" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="178"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="180"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="181"/>
     </row>
     <row r="14" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A14" s="178"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
     </row>
     <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="180"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="179"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="181"/>
     </row>
     <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
     </row>
     <row r="17" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="178"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="180"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="179"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="181"/>
     </row>
     <row r="18" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A18" s="178"/>
-      <c r="B18" s="178"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="179"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
     </row>
     <row r="19" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A19" s="178" t="s">
+      <c r="A19" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="180"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="179"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="181"/>
     </row>
     <row r="20" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="179"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="179"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
     </row>
     <row r="21" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="178"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="180"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="181"/>
     </row>
     <row r="22" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A22" s="178"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="179"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
     </row>
     <row r="23" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="180"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="181"/>
     </row>
     <row r="24" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A24" s="178"/>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="179"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="181"/>
+      <c r="O24" s="181"/>
     </row>
     <row r="25" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="178"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="179"/>
-      <c r="O25" s="180"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="179"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="179"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="181"/>
     </row>
     <row r="26" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A26" s="178"/>
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
       <c r="A27" s="13"/>
@@ -13965,15 +13963,15 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="177" t="s">
+      <c r="I28" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="177"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="177"/>
-      <c r="M28" s="177"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="177"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="190"/>
+      <c r="O28" s="190"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="22.5" customHeight="1">
@@ -13985,16 +13983,16 @@
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="188" t="s">
+      <c r="I29" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="188"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="190"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="190"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
       <c r="A30" s="16"/>
@@ -14005,14 +14003,14 @@
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="191"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="178"/>
+      <c r="O30" s="178"/>
+      <c r="P30" s="178"/>
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -14040,15 +14038,15 @@
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="177" t="s">
+      <c r="I32" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="190"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1">
       <c r="A33" s="16"/>
@@ -14059,16 +14057,16 @@
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="188" t="s">
+      <c r="I33" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="188"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="190"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="190"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
@@ -14079,14 +14077,14 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="191"/>
-      <c r="M34" s="191"/>
-      <c r="N34" s="191"/>
-      <c r="O34" s="191"/>
-      <c r="P34" s="191"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="178"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="178"/>
+      <c r="P34" s="178"/>
     </row>
     <row r="35" spans="1:16" ht="24.95" customHeight="1">
       <c r="A35" s="13"/>
@@ -14304,6 +14302,33 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="43">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P3"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="I32:O32"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="L11:M12"/>
+    <mergeCell ref="N11:O12"/>
+    <mergeCell ref="A13:K14"/>
+    <mergeCell ref="L13:M14"/>
+    <mergeCell ref="N13:O14"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="A15:K16"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="A5:K6"/>
+    <mergeCell ref="N15:O16"/>
     <mergeCell ref="I29:J30"/>
     <mergeCell ref="I33:J34"/>
     <mergeCell ref="K29:P30"/>
@@ -14320,33 +14345,6 @@
     <mergeCell ref="A9:K10"/>
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="A23:K24"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="A5:K6"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="A15:K16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P3"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="I32:O32"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="L11:M12"/>
-    <mergeCell ref="N11:O12"/>
-    <mergeCell ref="A13:K14"/>
-    <mergeCell ref="L13:M14"/>
-    <mergeCell ref="N13:O14"/>
-    <mergeCell ref="A19:K20"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="N9:O10"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="L15:M16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:O26 I29 K29 I33 K33">

--- a/４．【アイテ゛アシート】_神戸高専A.xlsx
+++ b/４．【アイテ゛アシート】_神戸高専A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\2023honrobo-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{323434DF-2F3E-45AF-96E9-0236B27B7753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5726E9C5-02BD-4582-B43F-465D2F13B5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="703" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2175" windowWidth="11670" windowHeight="11385" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$P$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1861,6 +1860,41 @@
     <xf numFmtId="0" fontId="43" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1892,43 +1926,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1973,24 +1991,110 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2017,18 +2121,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2048,99 +2140,6 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2322,6 +2321,47 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2335,47 +2375,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7322,8 +7321,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:P20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5"/>
@@ -7332,22 +7331,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="94.5" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -7366,134 +7365,134 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -7512,26 +7511,26 @@
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="61" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="21"/>
@@ -7550,24 +7549,24 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="B14" s="23"/>
@@ -7585,26 +7584,26 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="61" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
       <c r="B16" s="23"/>
@@ -7622,22 +7621,22 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="D18" s="23"/>
@@ -7653,11 +7652,11 @@
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="24" customHeight="1">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -7669,25 +7668,25 @@
     </row>
     <row r="20" spans="1:16" ht="24" customHeight="1">
       <c r="A20" s="23"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="61" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="B21" s="2"/>
@@ -7705,25 +7704,25 @@
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1">
       <c r="A22" s="23"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61" t="s">
-        <v>77</v>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51" t="s">
+        <v>80</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="B23" s="2"/>
@@ -7741,23 +7740,23 @@
     </row>
     <row r="24" spans="1:16" ht="24" customHeight="1">
       <c r="A24" s="23"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="B25" s="2"/>
@@ -7775,32 +7774,32 @@
     </row>
     <row r="26" spans="1:16" ht="24" customHeight="1">
       <c r="A26" s="23"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
     </row>
     <row r="27" spans="1:16" ht="24" customHeight="1"/>
     <row r="28" spans="1:16" ht="24" customHeight="1">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -7812,25 +7811,25 @@
     </row>
     <row r="29" spans="1:16" ht="24" customHeight="1">
       <c r="A29" s="23"/>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="61" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1">
       <c r="B30" s="23"/>
@@ -7848,25 +7847,25 @@
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" ht="24" customHeight="1">
       <c r="A32" s="23"/>
@@ -7887,42 +7886,42 @@
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
-      <c r="C33" s="49">
+      <c r="C33" s="60">
         <v>6</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="53">
+      <c r="E33" s="64">
         <v>27</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
       <c r="O33" s="24"/>
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="25"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
       <c r="O34" s="24"/>
     </row>
     <row r="35" spans="1:15" ht="15" customHeight="1">
@@ -7932,19 +7931,6 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="29">
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E13:P13"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A3:P6"/>
-    <mergeCell ref="A7:P9"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="F33:N34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -7961,6 +7947,19 @@
     <mergeCell ref="D26:P26"/>
     <mergeCell ref="D29:P29"/>
     <mergeCell ref="D31:P31"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P6"/>
+    <mergeCell ref="A7:P9"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E13:P13"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C33:C34 E33:E34">
@@ -8002,114 +8001,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1"/>
     <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78" t="s">
+      <c r="J4" s="70"/>
+      <c r="K4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="70"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="79">
+      <c r="A5" s="67">
         <v>4</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67">
         <v>1</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67">
         <v>3</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79">
+      <c r="F5" s="67"/>
+      <c r="G5" s="67">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67">
         <v>0</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79">
+      <c r="J5" s="67"/>
+      <c r="K5" s="67">
         <v>10</v>
       </c>
-      <c r="L5" s="79"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
@@ -8130,15 +8129,15 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -8148,74 +8147,74 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
     </row>
     <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
     </row>
     <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
     </row>
     <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
     </row>
     <row r="13" spans="1:16" ht="24.95" customHeight="1">
       <c r="A13" s="11"/>
@@ -8247,168 +8246,168 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="71"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
     </row>
     <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="80"/>
     </row>
     <row r="18" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="80"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="80"/>
     </row>
     <row r="20" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="80"/>
     </row>
     <row r="21" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="80"/>
     </row>
     <row r="22" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83"/>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1">
       <c r="A24" s="35" t="s">
@@ -8429,182 +8428,172 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="71"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77"/>
     </row>
     <row r="26" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="80"/>
     </row>
     <row r="27" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="80"/>
     </row>
     <row r="28" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
     </row>
     <row r="29" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="80"/>
     </row>
     <row r="30" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
     </row>
     <row r="31" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="83"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="26">
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A15:P23"/>
@@ -8621,6 +8610,16 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="A9:G9"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A5:L6 A9:N12 A15:P23 A25:P33">
@@ -8663,24 +8662,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="86"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="19"/>
@@ -8701,128 +8700,128 @@
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="90"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="121"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="99" t="s">
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
       <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95">
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="122">
         <v>800</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="95">
+      <c r="H6" s="122">
         <v>800</v>
       </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
       <c r="K6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="97">
+      <c r="L6" s="124">
         <v>1600</v>
       </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
       <c r="O6" s="30" t="s">
         <v>30</v>
       </c>
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="103">
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110">
         <v>30</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
       <c r="L7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="110" t="s">
+      <c r="M7" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="110"/>
+      <c r="N7" s="114"/>
       <c r="O7" s="32"/>
       <c r="P7" s="6">
         <f>$D$7</f>
@@ -8830,158 +8829,158 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="100" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="117" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="119"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="119"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="120" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="98"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="91" t="s">
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="126" t="s">
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="120" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="122"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="111" t="s">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
       <c r="A15" s="28"/>
@@ -10290,6 +10289,25 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="D14:P14"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A9:C10"/>
@@ -10302,25 +10320,6 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:P12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6:F6">
@@ -10371,7 +10370,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:P29"/>
     </sheetView>
   </sheetViews>
@@ -12083,21 +12082,21 @@
       <c r="A1" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="34.5" customHeight="1">
       <c r="A2" s="165" t="s">
@@ -12157,10 +12156,10 @@
       <c r="M4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="97">
+      <c r="N4" s="124">
         <v>95</v>
       </c>
-      <c r="O4" s="98"/>
+      <c r="O4" s="125"/>
       <c r="P4" s="44" t="s">
         <v>30</v>
       </c>
@@ -12181,10 +12180,10 @@
       <c r="M5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="97">
+      <c r="N5" s="124">
         <v>32</v>
       </c>
-      <c r="O5" s="98"/>
+      <c r="O5" s="125"/>
       <c r="P5" s="44" t="s">
         <v>30</v>
       </c>
@@ -12205,10 +12204,10 @@
       <c r="M6" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="97">
+      <c r="N6" s="124">
         <v>20</v>
       </c>
-      <c r="O6" s="98"/>
+      <c r="O6" s="125"/>
       <c r="P6" s="44" t="s">
         <v>30</v>
       </c>
@@ -12232,7 +12231,7 @@
       <c r="N7" s="161">
         <v>3</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="124"/>
       <c r="P7" s="44" t="s">
         <v>72</v>
       </c>
@@ -12256,7 +12255,7 @@
       <c r="N8" s="161">
         <v>1</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="124"/>
       <c r="P8" s="44" t="s">
         <v>50</v>
       </c>
@@ -12918,21 +12917,21 @@
       <c r="A1" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="166" t="s">
@@ -13462,74 +13461,74 @@
       <c r="A1" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
       <c r="L4" s="182" t="s">
         <v>20</v>
       </c>
@@ -13578,364 +13577,364 @@
       <c r="O6" s="186"/>
     </row>
     <row r="7" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="181"/>
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="178"/>
+      <c r="K7" s="178"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="180"/>
     </row>
     <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
     </row>
     <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="181"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="180"/>
     </row>
     <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
     </row>
     <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="181"/>
+      <c r="B11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="180"/>
     </row>
     <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
     </row>
     <row r="13" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="178" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="181"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="180"/>
     </row>
     <row r="14" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
     </row>
     <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="179" t="s">
+      <c r="A15" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="181"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="180"/>
     </row>
     <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
     </row>
     <row r="17" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A17" s="179" t="s">
+      <c r="A17" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="180"/>
     </row>
     <row r="18" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A18" s="179"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
     </row>
     <row r="19" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A19" s="179" t="s">
+      <c r="A19" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="181"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="180"/>
     </row>
     <row r="20" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A20" s="179"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
     </row>
     <row r="21" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="181"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="180"/>
     </row>
     <row r="22" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
     </row>
     <row r="23" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="181"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="179"/>
+      <c r="O23" s="180"/>
     </row>
     <row r="24" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
     </row>
     <row r="25" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A25" s="179" t="s">
+      <c r="A25" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="181"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="179"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="179"/>
+      <c r="O25" s="180"/>
     </row>
     <row r="26" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
       <c r="A27" s="13"/>
@@ -13963,15 +13962,15 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="190" t="s">
+      <c r="I28" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="22.5" customHeight="1">
@@ -13983,16 +13982,16 @@
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="175" t="s">
+      <c r="I29" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="175"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="190"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="190"/>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
       <c r="A30" s="16"/>
@@ -14003,14 +14002,14 @@
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="191"/>
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -14038,15 +14037,15 @@
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="190" t="s">
+      <c r="I32" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="190"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="190"/>
-      <c r="O32" s="190"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1">
       <c r="A33" s="16"/>
@@ -14057,16 +14056,16 @@
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="175" t="s">
+      <c r="I33" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177"/>
-      <c r="M33" s="177"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="190"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="190"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
@@ -14077,14 +14076,14 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="191"/>
+      <c r="P34" s="191"/>
     </row>
     <row r="35" spans="1:16" ht="24.95" customHeight="1">
       <c r="A35" s="13"/>
@@ -14302,6 +14301,33 @@
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="43">
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K29:P30"/>
+    <mergeCell ref="K33:P34"/>
+    <mergeCell ref="A7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="A25:K26"/>
+    <mergeCell ref="L25:M26"/>
+    <mergeCell ref="N25:O26"/>
+    <mergeCell ref="A21:K22"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="A9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="A23:K24"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+    <mergeCell ref="A5:K6"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="A15:K16"/>
+    <mergeCell ref="A17:K18"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="N17:O18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P3"/>
     <mergeCell ref="I28:O28"/>
@@ -14318,33 +14344,6 @@
     <mergeCell ref="N9:O10"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="L15:M16"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="A15:K16"/>
-    <mergeCell ref="A17:K18"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N5:O6"/>
-    <mergeCell ref="A5:K6"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="I33:J34"/>
-    <mergeCell ref="K29:P30"/>
-    <mergeCell ref="K33:P34"/>
-    <mergeCell ref="A7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="A25:K26"/>
-    <mergeCell ref="L25:M26"/>
-    <mergeCell ref="N25:O26"/>
-    <mergeCell ref="A21:K22"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="A9:K10"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="A23:K24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:O26 I29 K29 I33 K33">

--- a/４．【アイテ゛アシート】_神戸高専A.xlsx
+++ b/４．【アイテ゛アシート】_神戸高専A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\OneDrive\ドキュメント\GitHub\2023honrobo-document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsota\ドキュメント\GitHub\2023honrobo-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{323434DF-2F3E-45AF-96E9-0236B27B7753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B658DDE-9B35-4D24-838B-8B50E27841C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="703" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -35,17 +35,27 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$P$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>高専名</t>
     <rPh sb="0" eb="2">
@@ -127,13 +137,6 @@
   </si>
   <si>
     <t>アイデアシート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１年</t>
-    <rPh sb="1" eb="2">
-      <t>ネン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -309,13 +312,6 @@
     <t>横</t>
     <rPh sb="0" eb="1">
       <t>ヨコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役割</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクワリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -685,23 +681,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロボット名「○○○○」　</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(30kg以下）</t>
     <rPh sb="5" eb="7">
       <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ロボット名　「○○○○」</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -933,69 +915,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">「周回最速」
-ルール発表当初からロボットに必要な要素を考えた結果、周回速度が重要な要素であると認識しました。また、周回速度だけでなく、フルーツを効率よく回収する必要もあるため、その両方を実現するためのプロジェクトを立ち上げました。そこで、チームの目標を周回速度を限界まで突き詰め、フルーツをどのチームよりも先に回収することにしました。
-</t>
-    <rPh sb="10" eb="12">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウショ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シュウカイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="57" eb="61">
-      <t>シュウカイソクド</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>コウリツ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>カイシュウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>清水俊彦</t>
     <rPh sb="0" eb="2">
       <t>シミズ</t>
@@ -1069,45 +988,170 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>「周回最速」
+ルール発表当初からロボットに必要な要素を考えた結果、周回速度が重要な要素であると認識しました。そこでチームの目標を周回速度を限界まで突き詰めることにより、フルーツをどのチームよりも先に回収することを目指しました。
+　相手ロボットに左右されない圧倒的な速さで確実な勝利を目指します。
+　</t>
+    <rPh sb="10" eb="12">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウカイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>アットウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>カクジツ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械工学科</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウガクカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>078-795-3223</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ts8@kobe-kosen.ac.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボット名　「しゃなつね」</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボット名「しゃなつね」　</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ルール発表～5月12日(金)・・・アイディア出し
 5月13日(土)～6月19日(月)・・・試作期間
-＊5月24日(水)～6月6日(火)・・・前期中間試験
-6月29日(木)・・・「アイデアシート」「エントリーシート」「地区大会参加申し込み」「安全対策チェックシート①」提出締め切り
+5月24日(水)～6月6日(火)・・・前期中間試験
+6月30日(金)・・・「アイデアシート」「エントリーシート」「地区大会参加申し込み」「安全対策チェックシート①」提出締め切り
 7月上旬・・・試作機完成、試運転開始
 7月20日(木)～8月4日(金)・・・前期定期試験
 8月12日(木)～9月10日(日)・・・夏季休業、試作機改良
 8月28日(月）・・・「エントリーシート」・「アイデアシート（最終版）」提出締め切り
-9月20日(水）から・・・各地区ごと「チーム紹介シート」・「安全対策チェックシート②」提出締め切り
+9月27日(水）・・・「チーム紹介シート」・「安全対策チェックシート②」提出締め切り
 10月8日(日）・・・近畿地区大会</t>
-    <rPh sb="161" eb="162">
+    <rPh sb="82" eb="83">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="159" eb="160">
       <t>ガツ</t>
     </rPh>
+    <rPh sb="162" eb="163">
+      <t>ニチ</t>
+    </rPh>
     <rPh sb="164" eb="165">
+      <t>モク</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
       <t>ニチ</t>
     </rPh>
-    <rPh sb="166" eb="167">
-      <t>モク</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>ガツ</t>
-    </rPh>
     <rPh sb="172" eb="173">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="174" eb="175">
       <t>キン</t>
     </rPh>
+    <rPh sb="177" eb="179">
+      <t>ゼンキ</t>
+    </rPh>
     <rPh sb="179" eb="181">
-      <t>ゼンキ</t>
+      <t>テイキ</t>
     </rPh>
     <rPh sb="181" eb="183">
-      <t>テイキ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
       <t>シケン</t>
     </rPh>
-    <rPh sb="201" eb="202">
+    <rPh sb="199" eb="200">
       <t>ニチキンキチクタイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>石坂 孝一</t>
+    <rPh sb="0" eb="2">
+      <t>イシサカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>清水 俊彦</t>
+    <rPh sb="0" eb="2">
+      <t>シミズ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トシヒコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1115,7 +1159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="46">
     <font>
       <sz val="11"/>
@@ -1718,7 +1762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1914,6 +1958,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,17 +2028,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2328,11 +2376,19 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2510,7 +2566,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{000F2FD8-BA11-470E-BD94-C4807649650B}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFCCFF"/>
@@ -5398,22 +5456,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>91338</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>169624</xdr:rowOff>
+      <xdr:colOff>114822</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>353084</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78288</xdr:rowOff>
+      <xdr:colOff>307585</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D065C9-E188-E214-2485-EA5E8333E452}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7B0DF6-6A21-55EA-4973-4B3AD4F41057}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5435,8 +5493,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="91338" y="4527638"/>
-          <a:ext cx="4698047" cy="2935787"/>
+          <a:off x="114822" y="1450933"/>
+          <a:ext cx="4159338" cy="2599150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5448,22 +5506,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>91337</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182673</xdr:rowOff>
+      <xdr:colOff>93946</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>260959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>274008</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>143091</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207430</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>354903</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{081DDDE6-7F83-51FB-34E8-13278AB31084}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C8980D-CA06-F692-3B9F-2315B5DEB6C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5485,8 +5543,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="91337" y="1513563"/>
-          <a:ext cx="4175342" cy="2609151"/>
+          <a:off x="93946" y="4697260"/>
+          <a:ext cx="4476717" cy="2797479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5498,22 +5556,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>78289</xdr:colOff>
+      <xdr:colOff>83506</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>26098</xdr:rowOff>
+      <xdr:rowOff>52193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>298275</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>287056</xdr:rowOff>
+      <xdr:rowOff>270909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
+        <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D391E4D-253C-8757-38CF-5EA9F141D92E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F80743-358B-25A9-098D-143F8AFED31D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5535,8 +5593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="78289" y="7789625"/>
-          <a:ext cx="4656287" cy="2909691"/>
+          <a:off x="83506" y="7964467"/>
+          <a:ext cx="4676384" cy="2922250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5719,15 +5777,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>236221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>72266</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139701</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>384591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5756,8 +5814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="101600" y="5969001"/>
-          <a:ext cx="6828666" cy="4267200"/>
+          <a:off x="121920" y="5448301"/>
+          <a:ext cx="5212080" cy="3623090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5774,10 +5832,10 @@
       <xdr:rowOff>215901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>166259</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>342901</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51763</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5806,8 +5864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="1549401"/>
-          <a:ext cx="6909959" cy="4318000"/>
+          <a:off x="114300" y="1567181"/>
+          <a:ext cx="5352743" cy="3716019"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5816,6 +5874,81 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6065520" cy="759310"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5490F41-8758-6264-1BBD-44620687AF85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91440" y="9540240"/>
+          <a:ext cx="6065520" cy="759310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>ハラキリ機構の上部に高さ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>1600</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>ｍまで届く塔が立つ。その上部にお助けアイテムが取り付けられる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7322,32 +7455,32 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:P20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="94.5" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="4"/>
@@ -7366,134 +7499,134 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A3" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
       <c r="A10" s="5"/>
@@ -7519,7 +7652,7 @@
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="61"/>
@@ -7586,13 +7719,13 @@
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
       <c r="A15" s="55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
@@ -7626,18 +7759,18 @@
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1">
       <c r="D18" s="23"/>
@@ -7674,7 +7807,7 @@
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="61" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="61"/>
@@ -7710,7 +7843,7 @@
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="61" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E22" s="61"/>
       <c r="F22" s="61"/>
@@ -7745,7 +7878,9 @@
         <v>3</v>
       </c>
       <c r="C24" s="59"/>
-      <c r="D24" s="61"/>
+      <c r="D24" s="61" t="s">
+        <v>91</v>
+      </c>
       <c r="E24" s="61"/>
       <c r="F24" s="61"/>
       <c r="G24" s="61"/>
@@ -7779,7 +7914,9 @@
         <v>4</v>
       </c>
       <c r="C26" s="59"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="62" t="s">
+        <v>92</v>
+      </c>
       <c r="E26" s="61"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
@@ -7817,7 +7954,7 @@
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E29" s="61"/>
       <c r="F29" s="61"/>
@@ -7848,12 +7985,12 @@
     </row>
     <row r="31" spans="1:16" ht="24" customHeight="1">
       <c r="A31" s="23"/>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="60"/>
       <c r="D31" s="61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
@@ -7891,13 +8028,13 @@
         <v>6</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="53">
         <v>27</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
@@ -7978,13 +8115,16 @@
       <formula1>"Aチーム,Bチーム"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{DC5ACE68-BD2C-4262-9E1D-BB00F1BBD383}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7992,128 +8132,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B168B418-52F7-4484-BBD6-B24A0DFE07EB}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:P33"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="A1" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="79">
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="80">
         <v>4</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80">
         <v>1</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79">
+      <c r="D5" s="80"/>
+      <c r="E5" s="80">
         <v>3</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79">
+      <c r="F5" s="80"/>
+      <c r="G5" s="80">
         <v>2</v>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80">
         <v>0</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79">
+      <c r="J5" s="80"/>
+      <c r="K5" s="80">
         <v>10</v>
       </c>
-      <c r="L5" s="79"/>
+      <c r="L5" s="80"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -8129,16 +8267,16 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -8147,77 +8285,77 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67" t="s">
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -8233,9 +8371,9 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -8246,173 +8384,173 @@
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="71"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A15" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="75"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="75"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="75"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="75"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="78"/>
     </row>
     <row r="24" spans="1:16" ht="23.25" customHeight="1">
       <c r="A24" s="35" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -8428,169 +8566,169 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A25" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="71"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="74"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="74"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="74"/>
+    <row r="25" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A25" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="72"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="75"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="75"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="75"/>
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="74"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="78"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
@@ -8653,34 +8791,34 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:P12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="86"/>
+      <c r="A1" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="87"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="19"/>
@@ -8701,128 +8839,126 @@
       <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="90"/>
+      <c r="A3" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91" t="s">
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" ht="30" customHeight="1">
+      <c r="A6" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96">
+        <v>800</v>
+      </c>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91" t="s">
+      <c r="H6" s="96">
+        <v>800</v>
+      </c>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="98">
+        <v>1600</v>
+      </c>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16" ht="30" customHeight="1">
+      <c r="A7" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="104">
+        <v>30</v>
+      </c>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="28"/>
-    </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95">
-        <v>800</v>
-      </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="95">
-        <v>800</v>
-      </c>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="97">
-        <v>1600</v>
-      </c>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="103">
-        <v>30</v>
-      </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="110" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="110"/>
+        <v>48</v>
+      </c>
+      <c r="M7" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="111"/>
       <c r="O7" s="32"/>
       <c r="P7" s="6">
         <f>$D$7</f>
@@ -8830,158 +8966,158 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
+    </row>
+    <row r="9" spans="1:16" ht="30" customHeight="1">
+      <c r="A9" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="120"/>
+    </row>
+    <row r="10" spans="1:16" ht="30" customHeight="1">
+      <c r="A10" s="106"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="120"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" customHeight="1">
+      <c r="A11" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="121" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="123"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" customHeight="1">
+      <c r="A12" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="100" t="s">
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+    </row>
+    <row r="13" spans="1:16" ht="30" customHeight="1">
+      <c r="A13" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
-    </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="117" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="119"/>
-    </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="119"/>
-    </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="120" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122"/>
-    </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="123" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="126" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="91" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="126" t="s">
-        <v>84</v>
-      </c>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-    </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="120" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="123"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="111" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
+      <c r="A14" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113"/>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
       <c r="A15" s="28"/>
@@ -10371,34 +10507,34 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:P29"/>
+    <sheetView view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.75" customWidth="1"/>
+    <col min="1" max="16" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="129"/>
+      <c r="A1" s="128" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="130"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="20"/>
@@ -10419,492 +10555,492 @@
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
+      <c r="A3" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="136"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="138"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="139"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="138"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="139"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="139"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="138"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="138"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="138"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="138"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="138"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="136"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="136"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="136"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="136"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="139"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="141"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1"/>
     <row r="32" spans="1:16" ht="13.5" customHeight="1"/>
@@ -10925,7 +11061,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -10938,34 +11074,34 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="129"/>
+      <c r="A1" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="130"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="20"/>
@@ -10986,492 +11122,492 @@
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
+      <c r="A3" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="136"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="138"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="139"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="138"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="139"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="139"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="138"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="138"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="138"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="138"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="138"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="136"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="136"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="136"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="136"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="139"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="141"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1"/>
     <row r="32" spans="1:16" ht="13.5" customHeight="1"/>
@@ -11504,34 +11640,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C98AFA3-34A4-42A8-B644-D132B98C90BB}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:P29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="129"/>
+      <c r="A1" s="128" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="130"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
       <c r="A2" s="20"/>
@@ -11552,492 +11688,492 @@
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
+      <c r="A3" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="135"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="136"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="137"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="138"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="139"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="138"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="139"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
+      <c r="A7" s="137"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="139"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="138"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="136"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="138"/>
+      <c r="A10" s="137"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="136"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="138"/>
+      <c r="A11" s="137"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="136"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="137"/>
-      <c r="P12" s="138"/>
+      <c r="A12" s="137"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="136"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="138"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="138"/>
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
+      <c r="A15" s="137"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="138"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="138"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="138"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="136"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="137"/>
-      <c r="P20" s="138"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
-      <c r="O22" s="137"/>
-      <c r="P22" s="138"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="136"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="138"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="136"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="137"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="137"/>
-      <c r="O24" s="137"/>
-      <c r="P24" s="138"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="136"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="138"/>
+      <c r="A25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="136"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-      <c r="K26" s="137"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
-      <c r="O26" s="137"/>
-      <c r="P26" s="138"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="136"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="136"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="138"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
     </row>
     <row r="29" spans="1:16" ht="30" customHeight="1">
-      <c r="A29" s="139"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="141"/>
+      <c r="A29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
     </row>
     <row r="31" spans="1:16" ht="13.5" customHeight="1"/>
     <row r="32" spans="1:16" ht="13.5" customHeight="1"/>
@@ -12058,7 +12194,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -12070,306 +12206,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:P32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="87" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16" width="5.625" customWidth="1"/>
+    <col min="1" max="16" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+    </row>
+    <row r="2" spans="1:16" ht="34.5" customHeight="1">
+      <c r="A2" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-    </row>
-    <row r="2" spans="1:16" ht="34.5" customHeight="1">
-      <c r="A2" s="165" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="143" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="145"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="146"/>
       <c r="M3" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N3" s="41"/>
       <c r="O3" s="41"/>
       <c r="P3" s="42"/>
     </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="147"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
       <c r="M4" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="98">
+        <v>95</v>
+      </c>
+      <c r="O4" s="99"/>
+      <c r="P4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="97">
-        <v>95</v>
-      </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="44" t="s">
+    </row>
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="149"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="149"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="97">
+      <c r="N5" s="98">
         <v>32</v>
       </c>
-      <c r="O5" s="98"/>
+      <c r="O5" s="99"/>
       <c r="P5" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="148"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="149"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
       <c r="M6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="98">
+        <v>20</v>
+      </c>
+      <c r="O6" s="99"/>
+      <c r="P6" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A7" s="149"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="97">
-        <v>20</v>
-      </c>
-      <c r="O6" s="98"/>
-      <c r="P6" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="161">
+      <c r="N7" s="162">
         <v>3</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="98"/>
       <c r="P7" s="44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="149"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
       <c r="M8" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="161">
+        <v>69</v>
+      </c>
+      <c r="N8" s="162">
         <v>1</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="98"/>
       <c r="P8" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="148"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
-      <c r="L9" s="149"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="149"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
       <c r="P9" s="37"/>
     </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
       <c r="P10" s="37"/>
     </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="148"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
-      <c r="L11" s="149"/>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="149"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
       <c r="P11" s="37"/>
     </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="148"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="149"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
       <c r="P12" s="37"/>
     </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="149"/>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A13" s="149"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
       <c r="P13" s="37"/>
     </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A14" s="150"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="39"/>
     </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -12387,317 +12523,317 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="162" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
-    </row>
-    <row r="17" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A17" s="152" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="154"/>
-    </row>
-    <row r="18" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A18" s="155"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="157"/>
-    </row>
-    <row r="19" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A19" s="155"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="157"/>
-    </row>
-    <row r="20" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="157"/>
-    </row>
-    <row r="21" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
-    </row>
-    <row r="22" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
-    </row>
-    <row r="23" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A23" s="155"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="157"/>
-    </row>
-    <row r="24" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A24" s="155"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="157"/>
-    </row>
-    <row r="25" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="157"/>
-    </row>
-    <row r="26" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A26" s="155"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
-    </row>
-    <row r="27" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A27" s="155"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="156"/>
-      <c r="O27" s="156"/>
-      <c r="P27" s="157"/>
-    </row>
-    <row r="28" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A28" s="155"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="157"/>
-    </row>
-    <row r="29" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A29" s="155"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="157"/>
-    </row>
-    <row r="30" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A30" s="155"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
-    </row>
-    <row r="31" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="157"/>
-    </row>
-    <row r="32" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A32" s="158"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="160"/>
-    </row>
-    <row r="33" spans="1:15" ht="24.95" customHeight="1">
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A16" s="163" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="165"/>
+    </row>
+    <row r="17" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A17" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="155"/>
+    </row>
+    <row r="18" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A18" s="156"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="158"/>
+    </row>
+    <row r="19" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A19" s="156"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="158"/>
+    </row>
+    <row r="20" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A20" s="156"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="158"/>
+    </row>
+    <row r="21" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A21" s="156"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="158"/>
+    </row>
+    <row r="22" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A22" s="156"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="158"/>
+    </row>
+    <row r="23" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A23" s="156"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="158"/>
+    </row>
+    <row r="24" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A24" s="156"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="158"/>
+    </row>
+    <row r="25" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A25" s="156"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="157"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="158"/>
+    </row>
+    <row r="26" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A26" s="156"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="158"/>
+    </row>
+    <row r="27" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="157"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="158"/>
+    </row>
+    <row r="28" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A28" s="156"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="158"/>
+    </row>
+    <row r="29" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A29" s="156"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="158"/>
+    </row>
+    <row r="30" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A30" s="156"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="157"/>
+      <c r="P30" s="158"/>
+    </row>
+    <row r="31" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A31" s="156"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="158"/>
+    </row>
+    <row r="32" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="160"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="161"/>
+    </row>
+    <row r="33" spans="1:15" ht="24.9" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -12906,521 +13042,521 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P28"/>
+      <selection activeCell="A2" sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="15" width="5.625" customWidth="1"/>
+    <col min="1" max="15" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="142" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="A1" s="143" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
+      <c r="A2" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
-      <c r="A3" s="169"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="171"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="171"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="172"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1">
-      <c r="A4" s="169"/>
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1">
-      <c r="A5" s="169"/>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="171"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="172"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
-      <c r="A6" s="169"/>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="171"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="172"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1">
-      <c r="A7" s="169"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
+      <c r="A7" s="170"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="172"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="171"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="172"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="169"/>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="171"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="172"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1">
-      <c r="A10" s="169"/>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1">
-      <c r="A11" s="169"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="171"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="169"/>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="171"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="172"/>
     </row>
     <row r="13" spans="1:16" ht="30" customHeight="1">
-      <c r="A13" s="169"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="171"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
     </row>
     <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="A14" s="169"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="171"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
     </row>
     <row r="15" spans="1:16" ht="30" customHeight="1">
-      <c r="A15" s="169"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="171"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1">
-      <c r="A16" s="169"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1">
-      <c r="A17" s="169"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="171"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1">
-      <c r="A18" s="169"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="171"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
     </row>
     <row r="19" spans="1:16" ht="30" customHeight="1">
-      <c r="A19" s="169"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="171"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="172"/>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="171"/>
+      <c r="A20" s="170"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="172"/>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="A21" s="169"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="171"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="172"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="171"/>
+      <c r="A22" s="170"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="172"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="A23" s="169"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="171"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="172"/>
     </row>
     <row r="24" spans="1:16" ht="30" customHeight="1">
-      <c r="A24" s="169"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="171"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="172"/>
     </row>
     <row r="25" spans="1:16" ht="30" customHeight="1">
-      <c r="A25" s="169"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="171"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="172"/>
     </row>
     <row r="26" spans="1:16" ht="30" customHeight="1">
-      <c r="A26" s="169"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="171"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="172"/>
     </row>
     <row r="27" spans="1:16" ht="30" customHeight="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="171"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="172"/>
     </row>
     <row r="28" spans="1:16" ht="30" customHeight="1">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="174"/>
+      <c r="A28" s="173"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="174"/>
+      <c r="P28" s="175"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
@@ -13450,492 +13586,532 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:P30"/>
+      <selection activeCell="A2" sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="15" width="5.625" customWidth="1"/>
+    <col min="1" max="15" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1">
-      <c r="A1" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A2" s="188" t="s">
+      <c r="A1" s="143" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+    </row>
+    <row r="2" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A2" s="191" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+    </row>
+    <row r="3" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A3" s="191"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A4" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="185" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="186"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="186"/>
+    </row>
+    <row r="5" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A5" s="190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="188"/>
+      <c r="N5" s="189" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="189"/>
+    </row>
+    <row r="6" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A6" s="190"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+    </row>
+    <row r="7" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A7" s="182" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="184"/>
+      <c r="N7" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" s="184"/>
+    </row>
+    <row r="8" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+    </row>
+    <row r="9" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A9" s="182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="182"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="182"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="184"/>
+      <c r="N9" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="184"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A10" s="182"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+    </row>
+    <row r="11" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A11" s="182" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="184"/>
+      <c r="N11" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="184"/>
+    </row>
+    <row r="12" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A12" s="182"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+    </row>
+    <row r="13" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A13" s="182" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="182"/>
+      <c r="C13" s="182"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="184"/>
+      <c r="N13" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="184"/>
+    </row>
+    <row r="14" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A14" s="182"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="182"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
+    </row>
+    <row r="15" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A15" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="184"/>
+      <c r="N15" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O15" s="184"/>
+    </row>
+    <row r="16" spans="1:16" ht="24.9" customHeight="1">
+      <c r="A16" s="182"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+    </row>
+    <row r="17" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A17" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="184"/>
+      <c r="N17" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" s="184"/>
+    </row>
+    <row r="18" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A18" s="182"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+    </row>
+    <row r="19" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A19" s="182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="182"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="184"/>
+      <c r="N19" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="184"/>
+    </row>
+    <row r="20" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A20" s="182"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="184"/>
+      <c r="O20" s="184"/>
+    </row>
+    <row r="21" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A21" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="182"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="182"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="184"/>
+      <c r="N21" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="184"/>
+    </row>
+    <row r="22" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A22" s="182"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+    </row>
+    <row r="23" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A23" s="182" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="184"/>
+      <c r="N23" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O23" s="184"/>
+    </row>
+    <row r="24" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A24" s="182"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="182"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="184"/>
+    </row>
+    <row r="25" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A25" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-    </row>
-    <row r="3" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A3" s="188"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A4" s="191" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="182" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="183"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-    </row>
-    <row r="5" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A5" s="187" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="184" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="185"/>
-      <c r="N5" s="186" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="186"/>
-    </row>
-    <row r="6" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A6" s="187"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="186"/>
-      <c r="O6" s="186"/>
-    </row>
-    <row r="7" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A7" s="179" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="181"/>
-    </row>
-    <row r="8" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="179"/>
-      <c r="E8" s="179"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-    </row>
-    <row r="9" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A9" s="179" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="181"/>
-    </row>
-    <row r="10" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="179"/>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-    </row>
-    <row r="11" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A11" s="179" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="181"/>
-    </row>
-    <row r="12" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="179"/>
-      <c r="C12" s="179"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-    </row>
-    <row r="13" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A13" s="179" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="181"/>
-    </row>
-    <row r="14" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
-    </row>
-    <row r="15" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A15" s="179" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="179"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="179"/>
-      <c r="J15" s="179"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="181"/>
-    </row>
-    <row r="16" spans="1:16" ht="24.95" customHeight="1">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
-    </row>
-    <row r="17" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A17" s="179" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="179"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="179"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="181"/>
-    </row>
-    <row r="18" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A18" s="179"/>
-      <c r="B18" s="179"/>
-      <c r="C18" s="179"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="179"/>
-      <c r="J18" s="179"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-    </row>
-    <row r="19" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A19" s="179" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="179"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="179"/>
-      <c r="J19" s="179"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="181"/>
-    </row>
-    <row r="20" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A20" s="179"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
-      <c r="I20" s="179"/>
-      <c r="J20" s="179"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-    </row>
-    <row r="21" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A21" s="179" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="179"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
-      <c r="I21" s="179"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="181"/>
-    </row>
-    <row r="22" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="179"/>
-      <c r="J22" s="179"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-    </row>
-    <row r="23" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A23" s="179" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="179"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="181"/>
-    </row>
-    <row r="24" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="181"/>
-      <c r="O24" s="181"/>
-    </row>
-    <row r="25" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A25" s="179" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="179"/>
-      <c r="H25" s="179"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="181"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="181"/>
-    </row>
-    <row r="26" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="184"/>
+      <c r="N25" s="183" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" s="184"/>
+    </row>
+    <row r="26" spans="1:20" ht="24.9" customHeight="1">
+      <c r="A26" s="182"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="182"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="182"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1">
       <c r="A27" s="13"/>
@@ -13954,7 +14130,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:20" ht="24.95" customHeight="1">
+    <row r="28" spans="1:20" ht="24.9" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -13963,15 +14139,15 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="190" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
+      <c r="I28" s="193" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="193"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="193"/>
+      <c r="N28" s="193"/>
+      <c r="O28" s="193"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="22.5" customHeight="1">
@@ -13983,16 +14159,18 @@
       <c r="F29" s="16"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="175" t="s">
+      <c r="I29" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="175"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="178" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="179"/>
+      <c r="O29" s="179"/>
+      <c r="P29" s="179"/>
     </row>
     <row r="30" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
       <c r="A30" s="16"/>
@@ -14003,14 +14181,14 @@
       <c r="F30" s="16"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="180"/>
     </row>
     <row r="31" spans="1:20" ht="24.75" customHeight="1">
       <c r="A31" s="16"/>
@@ -14029,7 +14207,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:20" ht="24.95" customHeight="1">
+    <row r="32" spans="1:20" ht="24.9" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -14038,15 +14216,15 @@
       <c r="F32" s="16"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="190" t="s">
+      <c r="I32" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="190"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="190"/>
-      <c r="O32" s="190"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="193"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="193"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1">
       <c r="A33" s="16"/>
@@ -14057,16 +14235,18 @@
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="175" t="s">
+      <c r="I33" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="175"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177"/>
-      <c r="M33" s="177"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="178" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="178"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="178"/>
+      <c r="O33" s="178"/>
+      <c r="P33" s="178"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" thickBot="1">
       <c r="A34" s="13"/>
@@ -14077,16 +14257,16 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-    </row>
-    <row r="35" spans="1:16" ht="24.95" customHeight="1">
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.9" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -14103,7 +14283,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:16" ht="24.95" customHeight="1">
+    <row r="36" spans="1:16" ht="24.9" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -14120,7 +14300,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:16" ht="24.95" customHeight="1">
+    <row r="37" spans="1:16" ht="24.9" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -14137,7 +14317,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:16" ht="24.95" customHeight="1">
+    <row r="38" spans="1:16" ht="24.9" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -14154,7 +14334,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:16" ht="24.95" customHeight="1">
+    <row r="39" spans="1:16" ht="24.9" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -14171,7 +14351,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:16" ht="24.95" customHeight="1">
+    <row r="40" spans="1:16" ht="24.9" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -14188,7 +14368,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:16" ht="24.95" customHeight="1">
+    <row r="41" spans="1:16" ht="24.9" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -14205,7 +14385,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:16" ht="24.95" customHeight="1">
+    <row r="42" spans="1:16" ht="24.9" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -14222,7 +14402,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
     </row>
-    <row r="43" spans="1:16" ht="24.95" customHeight="1">
+    <row r="43" spans="1:16" ht="24.9" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -14239,7 +14419,7 @@
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
     </row>
-    <row r="44" spans="1:16" ht="24.95" customHeight="1">
+    <row r="44" spans="1:16" ht="24.9" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -14256,7 +14436,7 @@
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
     </row>
-    <row r="45" spans="1:16" ht="24.95" customHeight="1">
+    <row r="45" spans="1:16" ht="24.9" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -14273,7 +14453,7 @@
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:16" ht="24.95" customHeight="1">
+    <row r="46" spans="1:16" ht="24.9" customHeight="1">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -14290,15 +14470,15 @@
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="48" spans="1:16" ht="24.95" customHeight="1"/>
-    <row r="49" ht="24.95" customHeight="1"/>
-    <row r="50" ht="24.95" customHeight="1"/>
-    <row r="51" ht="24.95" customHeight="1"/>
-    <row r="52" ht="24.95" customHeight="1"/>
-    <row r="53" ht="24.95" customHeight="1"/>
-    <row r="54" ht="24.95" customHeight="1"/>
-    <row r="55" ht="24.95" customHeight="1"/>
+    <row r="47" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="48" spans="1:16" ht="24.9" customHeight="1"/>
+    <row r="49" ht="24.9" customHeight="1"/>
+    <row r="50" ht="24.9" customHeight="1"/>
+    <row r="51" ht="24.9" customHeight="1"/>
+    <row r="52" ht="24.9" customHeight="1"/>
+    <row r="53" ht="24.9" customHeight="1"/>
+    <row r="54" ht="24.9" customHeight="1"/>
+    <row r="55" ht="24.9" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="43">
